--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed2/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.7984</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="4">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.81160000000001</v>
+        <v>13.81940000000002</v>
       </c>
     </row>
     <row r="15">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.0408</v>
+        <v>12.9965</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>13.7349</v>
+        <v>13.9612</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.1567</v>
+        <v>13.0544</v>
       </c>
     </row>
   </sheetData>
